--- a/OUTPUT/Sim_1/sim1_filelist.xlsx
+++ b/OUTPUT/Sim_1/sim1_filelist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25215" windowHeight="9615"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25220" windowHeight="9620"/>
   </bookViews>
   <sheets>
     <sheet name="sim1_filelist" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="427">
   <si>
     <t>Sim 1</t>
   </si>
@@ -1293,16 +1293,24 @@
     <t>Number of Filaments (individual files)</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Sum</t>
+    <t>Total Filaments</t>
+  </si>
+  <si>
+    <t>Average # of Filaments</t>
+  </si>
+  <si>
+    <t>Average Size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[&lt;1000000]0.00,&quot; KB&quot;;[&lt;1000000000]0.00,,&quot; MB&quot;;0.00,,,&quot; GB&quot;"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1736,7 +1744,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1779,11 +1787,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1811,6 +1823,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -2103,20 +2116,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C425"/>
+  <dimension ref="A1:C426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="F406" sqref="F406"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="L413" sqref="L413"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2127,7 +2144,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2138,7 +2155,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2149,7 +2166,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2160,7 +2177,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2171,7 +2188,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2182,7 +2199,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2193,7 +2210,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2204,7 +2221,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2215,7 +2232,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2226,7 +2243,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2237,7 +2254,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2248,7 +2265,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2259,7 +2276,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2270,7 +2287,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2281,7 +2298,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2292,7 +2309,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2303,7 +2320,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2314,7 +2331,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2325,7 +2342,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2336,7 +2353,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2347,7 +2364,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2358,7 +2375,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2369,7 +2386,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2380,7 +2397,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2391,7 +2408,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2402,7 +2419,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2413,7 +2430,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2424,7 +2441,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2435,7 +2452,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2446,7 +2463,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2457,7 +2474,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2468,7 +2485,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2479,7 +2496,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2490,7 +2507,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2501,7 +2518,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2512,7 +2529,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2523,7 +2540,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2534,7 +2551,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2545,7 +2562,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2556,7 +2573,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2567,7 +2584,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2578,7 +2595,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2589,7 +2606,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2600,7 +2617,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2611,7 +2628,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2622,7 +2639,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2633,7 +2650,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2644,7 +2661,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2655,7 +2672,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2666,7 +2683,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2677,7 +2694,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2688,7 +2705,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2699,7 +2716,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2710,7 +2727,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2721,7 +2738,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2732,7 +2749,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2743,7 +2760,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2754,7 +2771,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2765,7 +2782,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2776,7 +2793,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2787,7 +2804,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2798,7 +2815,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2809,7 +2826,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2820,7 +2837,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2831,7 +2848,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2842,7 +2859,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2853,7 +2870,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2864,7 +2881,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2875,7 +2892,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2886,7 +2903,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2897,7 +2914,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2908,7 +2925,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2919,7 +2936,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2930,7 +2947,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2941,7 +2958,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2952,7 +2969,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2963,7 +2980,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2974,7 +2991,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2985,7 +3002,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2996,7 +3013,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -3007,7 +3024,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -3018,7 +3035,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -3029,7 +3046,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -3040,7 +3057,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -3051,7 +3068,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -3062,7 +3079,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -3073,7 +3090,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -3084,7 +3101,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -3095,7 +3112,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -3106,7 +3123,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -3117,7 +3134,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -3128,7 +3145,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -3139,7 +3156,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -3150,7 +3167,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -3161,7 +3178,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -3172,7 +3189,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -3183,7 +3200,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -3194,7 +3211,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -3205,7 +3222,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -3216,7 +3233,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -3227,7 +3244,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -3238,7 +3255,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -3249,7 +3266,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -3260,7 +3277,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -3271,7 +3288,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -3282,7 +3299,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -3293,7 +3310,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -3304,7 +3321,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -3315,7 +3332,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -3326,7 +3343,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -3337,7 +3354,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -3348,7 +3365,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -3359,7 +3376,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -3370,7 +3387,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -3381,7 +3398,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -3392,7 +3409,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -3403,7 +3420,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -3414,7 +3431,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -3425,7 +3442,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -3436,7 +3453,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -3447,7 +3464,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -3458,7 +3475,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -3469,7 +3486,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -3480,7 +3497,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -3491,7 +3508,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -3502,7 +3519,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -3513,7 +3530,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -3524,7 +3541,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -3535,7 +3552,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -3546,7 +3563,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -3557,7 +3574,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -3568,7 +3585,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -3579,7 +3596,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -3590,7 +3607,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -3601,7 +3618,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -3612,7 +3629,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -3623,7 +3640,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -3634,7 +3651,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -3645,7 +3662,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -3656,7 +3673,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -3667,7 +3684,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -3678,7 +3695,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -3689,7 +3706,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -3700,7 +3717,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -3711,7 +3728,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -3722,7 +3739,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -3733,7 +3750,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -3744,7 +3761,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -3755,7 +3772,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -3766,7 +3783,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -3777,7 +3794,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -3788,7 +3805,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -3799,7 +3816,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -3810,7 +3827,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -3821,7 +3838,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -3832,7 +3849,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -3843,7 +3860,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -3854,7 +3871,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -3865,7 +3882,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -3876,7 +3893,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -3887,7 +3904,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -3898,7 +3915,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -3909,7 +3926,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -3920,7 +3937,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -3931,7 +3948,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -3942,7 +3959,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -3953,7 +3970,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -3964,7 +3981,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -3975,7 +3992,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -3986,7 +4003,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -3997,7 +4014,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -4008,7 +4025,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -4019,7 +4036,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -4030,7 +4047,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -4041,7 +4058,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -4052,7 +4069,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -4063,7 +4080,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -4074,7 +4091,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -4085,7 +4102,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -4096,7 +4113,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -4107,7 +4124,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -4118,7 +4135,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -4129,7 +4146,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -4140,7 +4157,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -4151,7 +4168,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -4162,7 +4179,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -4173,7 +4190,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -4184,7 +4201,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -4195,7 +4212,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -4206,7 +4223,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -4217,7 +4234,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -4228,7 +4245,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -4239,7 +4256,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -4250,7 +4267,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -4261,7 +4278,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -4272,7 +4289,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -4283,7 +4300,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -4294,7 +4311,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -4305,7 +4322,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -4316,7 +4333,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -4327,7 +4344,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -4338,7 +4355,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -4349,7 +4366,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -4360,7 +4377,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -4371,7 +4388,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -4382,7 +4399,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -4393,7 +4410,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -4404,7 +4421,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -4415,7 +4432,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -4426,7 +4443,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -4437,7 +4454,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -4448,7 +4465,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -4459,7 +4476,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -4470,7 +4487,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -4481,7 +4498,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -4492,7 +4509,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -4503,7 +4520,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -4514,7 +4531,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -4525,7 +4542,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -4536,7 +4553,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -4547,7 +4564,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -4558,7 +4575,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -4569,7 +4586,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -4580,7 +4597,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -4591,7 +4608,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -4602,7 +4619,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -4613,7 +4630,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -4624,7 +4641,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -4635,7 +4652,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -4646,7 +4663,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -4657,7 +4674,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -4668,7 +4685,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -4679,7 +4696,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -4690,7 +4707,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>236</v>
       </c>
@@ -4701,7 +4718,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -4712,7 +4729,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -4723,7 +4740,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -4734,7 +4751,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -4745,7 +4762,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -4756,7 +4773,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -4767,7 +4784,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -4778,7 +4795,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -4789,7 +4806,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -4800,7 +4817,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -4811,7 +4828,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>247</v>
       </c>
@@ -4822,7 +4839,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -4833,7 +4850,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -4844,7 +4861,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -4855,7 +4872,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>251</v>
       </c>
@@ -4866,7 +4883,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -4877,7 +4894,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>253</v>
       </c>
@@ -4888,7 +4905,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>254</v>
       </c>
@@ -4899,7 +4916,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>255</v>
       </c>
@@ -4910,7 +4927,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>256</v>
       </c>
@@ -4921,7 +4938,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>257</v>
       </c>
@@ -4932,7 +4949,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -4943,7 +4960,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>259</v>
       </c>
@@ -4954,7 +4971,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>260</v>
       </c>
@@ -4965,7 +4982,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>261</v>
       </c>
@@ -4976,7 +4993,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>262</v>
       </c>
@@ -4987,7 +5004,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>263</v>
       </c>
@@ -4998,7 +5015,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -5009,7 +5026,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>265</v>
       </c>
@@ -5020,7 +5037,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>266</v>
       </c>
@@ -5031,7 +5048,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>267</v>
       </c>
@@ -5042,7 +5059,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>268</v>
       </c>
@@ -5053,7 +5070,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>269</v>
       </c>
@@ -5064,7 +5081,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>270</v>
       </c>
@@ -5075,7 +5092,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>271</v>
       </c>
@@ -5086,7 +5103,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>272</v>
       </c>
@@ -5097,7 +5114,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>273</v>
       </c>
@@ -5108,7 +5125,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -5119,7 +5136,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>275</v>
       </c>
@@ -5130,7 +5147,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>276</v>
       </c>
@@ -5141,7 +5158,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -5152,7 +5169,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>278</v>
       </c>
@@ -5163,7 +5180,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>279</v>
       </c>
@@ -5174,7 +5191,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>280</v>
       </c>
@@ -5185,7 +5202,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>281</v>
       </c>
@@ -5196,7 +5213,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>282</v>
       </c>
@@ -5207,7 +5224,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>283</v>
       </c>
@@ -5218,7 +5235,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>284</v>
       </c>
@@ -5229,7 +5246,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>285</v>
       </c>
@@ -5240,7 +5257,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>286</v>
       </c>
@@ -5251,7 +5268,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -5262,7 +5279,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>288</v>
       </c>
@@ -5273,7 +5290,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>289</v>
       </c>
@@ -5284,7 +5301,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>290</v>
       </c>
@@ -5295,7 +5312,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>291</v>
       </c>
@@ -5306,7 +5323,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>292</v>
       </c>
@@ -5317,7 +5334,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>293</v>
       </c>
@@ -5328,7 +5345,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>294</v>
       </c>
@@ -5339,7 +5356,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>295</v>
       </c>
@@ -5350,7 +5367,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>296</v>
       </c>
@@ -5361,7 +5378,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>297</v>
       </c>
@@ -5372,7 +5389,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>298</v>
       </c>
@@ -5383,7 +5400,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>299</v>
       </c>
@@ -5394,7 +5411,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>300</v>
       </c>
@@ -5405,7 +5422,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>301</v>
       </c>
@@ -5416,7 +5433,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>302</v>
       </c>
@@ -5427,7 +5444,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>303</v>
       </c>
@@ -5438,7 +5455,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>304</v>
       </c>
@@ -5449,7 +5466,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>305</v>
       </c>
@@ -5460,7 +5477,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -5471,7 +5488,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>307</v>
       </c>
@@ -5482,7 +5499,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>308</v>
       </c>
@@ -5493,7 +5510,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>309</v>
       </c>
@@ -5504,7 +5521,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>310</v>
       </c>
@@ -5515,7 +5532,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>311</v>
       </c>
@@ -5526,7 +5543,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>312</v>
       </c>
@@ -5537,7 +5554,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>313</v>
       </c>
@@ -5548,7 +5565,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>314</v>
       </c>
@@ -5559,7 +5576,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>315</v>
       </c>
@@ -5570,7 +5587,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>316</v>
       </c>
@@ -5581,7 +5598,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>317</v>
       </c>
@@ -5592,7 +5609,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>318</v>
       </c>
@@ -5603,7 +5620,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>319</v>
       </c>
@@ -5614,7 +5631,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>320</v>
       </c>
@@ -5625,7 +5642,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>321</v>
       </c>
@@ -5636,7 +5653,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>322</v>
       </c>
@@ -5647,7 +5664,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>323</v>
       </c>
@@ -5658,7 +5675,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>324</v>
       </c>
@@ -5669,7 +5686,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>325</v>
       </c>
@@ -5680,7 +5697,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>326</v>
       </c>
@@ -5691,7 +5708,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>327</v>
       </c>
@@ -5702,7 +5719,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>328</v>
       </c>
@@ -5713,7 +5730,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>329</v>
       </c>
@@ -5724,7 +5741,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>330</v>
       </c>
@@ -5735,7 +5752,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>331</v>
       </c>
@@ -5746,7 +5763,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>332</v>
       </c>
@@ -5757,7 +5774,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>333</v>
       </c>
@@ -5768,7 +5785,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>334</v>
       </c>
@@ -5779,7 +5796,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>335</v>
       </c>
@@ -5790,7 +5807,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>336</v>
       </c>
@@ -5801,7 +5818,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>337</v>
       </c>
@@ -5812,7 +5829,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>338</v>
       </c>
@@ -5823,7 +5840,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>339</v>
       </c>
@@ -5834,7 +5851,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>340</v>
       </c>
@@ -5845,7 +5862,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>341</v>
       </c>
@@ -5856,7 +5873,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>342</v>
       </c>
@@ -5867,7 +5884,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>343</v>
       </c>
@@ -5878,7 +5895,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>344</v>
       </c>
@@ -5889,7 +5906,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>345</v>
       </c>
@@ -5900,7 +5917,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>346</v>
       </c>
@@ -5911,7 +5928,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>347</v>
       </c>
@@ -5922,7 +5939,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>348</v>
       </c>
@@ -5933,7 +5950,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>349</v>
       </c>
@@ -5944,7 +5961,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>350</v>
       </c>
@@ -5955,7 +5972,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>351</v>
       </c>
@@ -5966,7 +5983,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>352</v>
       </c>
@@ -5977,7 +5994,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>353</v>
       </c>
@@ -5988,7 +6005,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>354</v>
       </c>
@@ -5999,7 +6016,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>355</v>
       </c>
@@ -6010,7 +6027,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>356</v>
       </c>
@@ -6021,7 +6038,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>357</v>
       </c>
@@ -6032,7 +6049,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>358</v>
       </c>
@@ -6043,7 +6060,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>359</v>
       </c>
@@ -6054,7 +6071,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>360</v>
       </c>
@@ -6065,7 +6082,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>361</v>
       </c>
@@ -6076,7 +6093,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>362</v>
       </c>
@@ -6087,7 +6104,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>363</v>
       </c>
@@ -6098,7 +6115,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>364</v>
       </c>
@@ -6109,7 +6126,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>365</v>
       </c>
@@ -6120,7 +6137,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>366</v>
       </c>
@@ -6131,7 +6148,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>367</v>
       </c>
@@ -6142,7 +6159,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>368</v>
       </c>
@@ -6153,7 +6170,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>369</v>
       </c>
@@ -6164,7 +6181,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>370</v>
       </c>
@@ -6175,7 +6192,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>371</v>
       </c>
@@ -6186,7 +6203,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>372</v>
       </c>
@@ -6197,7 +6214,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>373</v>
       </c>
@@ -6208,7 +6225,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>374</v>
       </c>
@@ -6219,7 +6236,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>375</v>
       </c>
@@ -6230,7 +6247,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>376</v>
       </c>
@@ -6241,7 +6258,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>377</v>
       </c>
@@ -6252,7 +6269,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>378</v>
       </c>
@@ -6263,7 +6280,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>379</v>
       </c>
@@ -6274,7 +6291,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>380</v>
       </c>
@@ -6285,7 +6302,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>381</v>
       </c>
@@ -6296,7 +6313,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>382</v>
       </c>
@@ -6307,7 +6324,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>383</v>
       </c>
@@ -6318,7 +6335,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>384</v>
       </c>
@@ -6329,7 +6346,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>385</v>
       </c>
@@ -6340,7 +6357,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>386</v>
       </c>
@@ -6351,7 +6368,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>387</v>
       </c>
@@ -6362,7 +6379,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>388</v>
       </c>
@@ -6373,7 +6390,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>389</v>
       </c>
@@ -6384,7 +6401,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>390</v>
       </c>
@@ -6395,7 +6412,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>391</v>
       </c>
@@ -6406,7 +6423,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>392</v>
       </c>
@@ -6417,7 +6434,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>393</v>
       </c>
@@ -6428,7 +6445,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>394</v>
       </c>
@@ -6439,7 +6456,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>395</v>
       </c>
@@ -6450,7 +6467,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>396</v>
       </c>
@@ -6461,7 +6478,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>397</v>
       </c>
@@ -6472,7 +6489,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>398</v>
       </c>
@@ -6483,7 +6500,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>399</v>
       </c>
@@ -6494,7 +6511,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>400</v>
       </c>
@@ -6505,7 +6522,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>401</v>
       </c>
@@ -6516,7 +6533,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>402</v>
       </c>
@@ -6527,7 +6544,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>403</v>
       </c>
@@ -6538,7 +6555,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>404</v>
       </c>
@@ -6549,7 +6566,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>405</v>
       </c>
@@ -6560,7 +6577,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>406</v>
       </c>
@@ -6571,7 +6588,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>407</v>
       </c>
@@ -6582,7 +6599,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>408</v>
       </c>
@@ -6593,7 +6610,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>409</v>
       </c>
@@ -6604,7 +6621,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>410</v>
       </c>
@@ -6615,7 +6632,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>411</v>
       </c>
@@ -6626,7 +6643,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>412</v>
       </c>
@@ -6637,7 +6654,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>413</v>
       </c>
@@ -6648,7 +6665,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>414</v>
       </c>
@@ -6659,7 +6676,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>415</v>
       </c>
@@ -6670,7 +6687,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>416</v>
       </c>
@@ -6681,7 +6698,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>417</v>
       </c>
@@ -6692,7 +6709,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>418</v>
       </c>
@@ -6703,7 +6720,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>419</v>
       </c>
@@ -6714,7 +6731,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>420</v>
       </c>
@@ -6725,7 +6742,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>421</v>
       </c>
@@ -6736,7 +6753,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>422</v>
       </c>
@@ -6747,26 +6764,29 @@
         <v>361</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B423" t="s">
-        <v>424</v>
-      </c>
-      <c r="C423" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B424">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>426</v>
+      </c>
+      <c r="B424" s="1">
         <f>AVERAGE(B3:B422)</f>
         <v>8271381.1809523813</v>
       </c>
-      <c r="C424">
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
+        <v>424</v>
+      </c>
+      <c r="C425" s="2">
         <f>SUM(C2:C422)</f>
         <v>197955</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C425">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
+        <v>425</v>
+      </c>
+      <c r="C426" s="3">
         <f>AVERAGE(C4:C423)</f>
         <v>471.17422434367541</v>
       </c>
